--- a/data/6_tables/tables_main/Table3_CE_Table_Avg_scc193.xlsx
+++ b/data/6_tables/tables_main/Table3_CE_Table_Avg_scc193.xlsx
@@ -1548,7 +1548,7 @@
         <v>1356.4920654296875</v>
       </c>
       <c r="E4">
-        <v>-414.67373657226563</v>
+        <v>-414.6737060546875</v>
       </c>
     </row>
     <row r="5">
@@ -1590,16 +1590,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.0123741626739502</v>
+        <v>1.012169361114502</v>
       </c>
       <c r="C7">
-        <v>576.69281005859375</v>
+        <v>577.3785400390625</v>
       </c>
       <c r="D7">
-        <v>5892.32080078125</v>
+        <v>5939.59033203125</v>
       </c>
       <c r="E7">
-        <v>-38.354965209960938</v>
+        <v>-37.713172912597656</v>
       </c>
     </row>
     <row r="8">
@@ -1743,16 +1743,16 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>0.99798816442489624</v>
+        <v>0.99801546335220337</v>
       </c>
       <c r="C16">
-        <v>658.8577880859375</v>
+        <v>658.86053466796875</v>
       </c>
       <c r="D16">
-        <v>6041.19775390625</v>
+        <v>6087.25146484375</v>
       </c>
       <c r="E16">
-        <v>42.8043212890625</v>
+        <v>42.803764343261719</v>
       </c>
     </row>
     <row r="17">
